--- a/spring-boot-drools-xls/src/main/resources/rules/point.xlsx
+++ b/spring-boot-drools-xls/src/main/resources/rules/point.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>RuleSet</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PRIORITY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,10 +61,6 @@
   </si>
   <si>
     <t>1000,5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount &gt;= $1,amount &lt; $2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -80,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100,o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,11 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o.setScore(o.getScore()+$1);
-retract($2);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>printScore($1,$2);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,6 +109,57 @@
   </si>
   <si>
     <t>订单金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no-loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTIVATION-GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agenda-group</t>
+  </si>
+  <si>
+    <t>o.setScore(o.getScore()+$1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount &gt;= $1, amount &lt; $2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>date-expires</t>
+  </si>
+  <si>
+    <t>2018-12-05 20:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date-effective</t>
+  </si>
+  <si>
+    <t>50,o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-05 20:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-05 21:00:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +189,37 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,10 +243,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -189,6 +254,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -495,155 +578,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="33.875" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="2" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="22.25" customWidth="1"/>
+    <col min="10" max="10" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+    <row r="6" spans="1:10" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H10" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C16" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="C17" s="12"/>
+      <c r="F17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="I17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="s">
         <v>19</v>
       </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C16:C17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/spring-boot-drools-xls/src/main/resources/rules/point.xlsx
+++ b/spring-boot-drools-xls/src/main/resources/rules/point.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t>RuleSet</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,22 @@
   </si>
   <si>
     <t>2018-12-05 21:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o.getUser.getLevel() == $1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -265,9 +281,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -578,21 +591,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="22.25" customWidth="1"/>
-    <col min="10" max="10" width="28.875" customWidth="1"/>
+    <col min="8" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="22.25" customWidth="1"/>
+    <col min="11" max="11" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -600,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -613,13 +627,14 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="b">
+        <v>1</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -627,190 +642,233 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="H10" s="10" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H11" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="H12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H12" t="s">
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13">
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="H15" s="1" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" s="12">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
         <v>1000</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="F17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="11"/>
       <c r="H17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="F18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K18" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C16:C17"/>
+  <mergeCells count="2">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -820,16 +878,276 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="7" width="21" customWidth="1"/>
+    <col min="8" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="22.25" customWidth="1"/>
+    <col min="11" max="11" width="28.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="F18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C17:C19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
